--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/10/seed4/result_data_KNN.xlsx
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.537999999999999</v>
+        <v>-7.946000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.346</v>
+        <v>-8.144</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.634</v>
+        <v>-8.044</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
